--- a/docs/feature_registry.xlsx
+++ b/docs/feature_registry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.5*host_response_rate + 0.3*host_acceptance_rate + 0.2*instant_bookable_flag</t>
+          <t>0.4*host_response_rate + 0.3*host_acceptance_rate + 0.3*host_is_superhost_flag</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -948,12 +948,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>host_is_superhost_flag</t>
+          <t>host_verifications_count</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>是否为超赞房东</t>
+          <t>房东验证方式数量</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -963,29 +963,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>host_is_superhost in (t,true,1) → 1，否则 0</t>
+          <t>解析 host_verifications 列表/字典，统计验证方式数量</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>host_experience_years</t>
+          <t>host_has_gov_id</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>房东经验（年）</t>
+          <t>是否提供政府ID验证</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -995,29 +995,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2021-09-07 与 host_since 的时间差（年）</t>
+          <t>host_verifications 中包含 'government' → 1，否则 0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>host_experience_score</t>
+          <t>host_is_superhost_flag</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>房东经验综合评分</t>
+          <t>是否为超赞房东</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1027,17 +1027,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.5*superhost_flag + 0.1*经验年限(≤15) + 0.2*log1p(host_listings_count)</t>
+          <t>host_is_superhost in (t,true,1) → 1，否则 0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>派生自 host 字段</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
@@ -1357,14 +1357,14 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>bathrooms</t>
+          <t>bathrooms_numeric</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>从 bathrooms_text 中提取数字，半卫=0.5，缺失标记 missing</t>
+          <t>从 bathrooms_text 中提取数字，缺失填 0</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1389,19 +1389,19 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>amenities_count</t>
+          <t>is_shared_bath</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>设施数量</t>
+          <t>是否为共享浴室</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1411,29 +1411,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>解析 amenities 列表后的元素数量</t>
+          <t>bathrooms_text 中包含 'shared' → 1，否则 0</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>amenity_comfort_score</t>
+          <t>amenities_count</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>设施舒适度综合得分</t>
+          <t>设施数量</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1443,29 +1443,29 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>luxury/family/business/safety 计分 + 0.05*amenities_count</t>
+          <t>解析 amenities 列表后的元素数量</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>派生自 amenities</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>amenity_score_luxury</t>
+          <t>amenity_comfort_score</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>高端设施数量</t>
+          <t>设施舒适度综合得分</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>统计 hot tub/pool/gym 等关键词出现次数</t>
+          <t>luxury/family/business/safety 计分 + 0.05*amenities_count</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1492,12 +1492,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>amenity_score_family</t>
+          <t>amenity_score_luxury</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>亲子设施数量</t>
+          <t>高端设施数量</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>统计 crib/high chair/baby monitor 等关键词出现次数</t>
+          <t>统计 hot tub/pool/gym 等关键词出现次数</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1524,12 +1524,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>amenity_score_business</t>
+          <t>amenity_score_family</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>商务设施数量</t>
+          <t>亲子设施数量</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1539,12 +1539,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>统计 workspace/desk/printer 等关键词出现次数</t>
+          <t>统计 crib/high chair/baby monitor 等关键词出现次数</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1556,12 +1556,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>amenity_score_safety</t>
+          <t>amenity_score_business</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>安全设施数量</t>
+          <t>商务设施数量</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1571,12 +1571,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>统计 smoke detector/first aid kit 等关键词出现次数</t>
+          <t>统计 workspace/desk/printer 等关键词出现次数</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1588,12 +1588,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>amenity_has_wifi</t>
+          <t>amenity_score_safety</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>是否提供 Wi-Fi</t>
+          <t>安全设施数量</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1603,29 +1603,29 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>amenities 中出现 'wi-fi' → 1，否则 0</t>
+          <t>统计 smoke detector/first aid kit 等关键词出现次数</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>派生自 amenities</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>amenity_has_kitchen</t>
+          <t>amenity_has_wifi</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>是否提供 厨房</t>
+          <t>是否提供 Wi-Fi</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>amenities 中出现 '厨房' → 1，否则 0</t>
+          <t>amenities 中出现 'wi-fi' → 1，否则 0</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1645,19 +1645,19 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>amenity_has_heating</t>
+          <t>amenity_has_kitchen</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>是否提供 暖气</t>
+          <t>是否提供 厨房</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>amenities 中出现 '暖气' → 1，否则 0</t>
+          <t>amenities 中出现 '厨房' → 1，否则 0</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1677,19 +1677,19 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>amenity_has_air_conditioning</t>
+          <t>amenity_has_heating</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>是否提供 空调</t>
+          <t>是否提供 暖气</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>amenities 中出现 '空调' → 1，否则 0</t>
+          <t>amenities 中出现 '暖气' → 1，否则 0</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1709,19 +1709,19 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>amenity_has_washer</t>
+          <t>amenity_has_air_conditioning</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>是否提供 洗衣机</t>
+          <t>是否提供 空调</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>amenities 中出现 '洗衣机' → 1，否则 0</t>
+          <t>amenities 中出现 '空调' → 1，否则 0</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1741,19 +1741,19 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>amenity_has_dryer</t>
+          <t>amenity_has_washer</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>是否提供 烘干机</t>
+          <t>是否提供 洗衣机</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>amenities 中出现 '烘干机' → 1，否则 0</t>
+          <t>amenities 中出现 '洗衣机' → 1，否则 0</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1773,19 +1773,19 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>amenity_has_tv</t>
+          <t>amenity_has_dryer</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>是否提供 电视</t>
+          <t>是否提供 烘干机</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>amenities 中出现 '电视' → 1，否则 0</t>
+          <t>amenities 中出现 '烘干机' → 1，否则 0</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1805,19 +1805,19 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>amenity_has_dishwasher</t>
+          <t>amenity_has_tv</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>是否提供 洗碗机</t>
+          <t>是否提供 电视</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>amenities 中出现 '洗碗机' → 1，否则 0</t>
+          <t>amenities 中出现 '电视' → 1，否则 0</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1837,19 +1837,19 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>amenity_has_parking</t>
+          <t>amenity_has_dishwasher</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>是否提供 停车位</t>
+          <t>是否提供 洗碗机</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>amenities 中出现 '停车位' → 1，否则 0</t>
+          <t>amenities 中出现 '洗碗机' → 1，否则 0</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1869,19 +1869,19 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>amenity_has_balcony</t>
+          <t>amenity_has_parking</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>是否提供 阳台</t>
+          <t>是否提供 停车位</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>amenities 中出现 '阳台' → 1，否则 0</t>
+          <t>amenities 中出现 '停车位' → 1，否则 0</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1901,19 +1901,19 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>amenity_has_elevator</t>
+          <t>amenity_has_balcony</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>是否提供 电梯</t>
+          <t>是否提供 阳台</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>amenities 中出现 '电梯' → 1，否则 0</t>
+          <t>amenities 中出现 '阳台' → 1，否则 0</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1933,19 +1933,19 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>amenity_has_coffee_maker</t>
+          <t>amenity_has_elevator</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>是否提供 咖啡机</t>
+          <t>是否提供 电梯</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>amenities 中出现 '咖啡机' → 1，否则 0</t>
+          <t>amenities 中出现 '电梯' → 1，否则 0</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1965,19 +1965,19 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>description_length</t>
+          <t>amenity_has_coffee_maker</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>房源描述字数</t>
+          <t>是否提供 咖啡机</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1987,29 +1987,29 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>description 文本长度，缺失按 0 计算</t>
+          <t>amenities 中出现 '咖啡机' → 1，否则 0</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>neighborhood_desc_length</t>
+          <t>description_length</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>社区介绍字数</t>
+          <t>房源描述字数</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2019,29 +2019,29 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>neighborhood_overview 文本长度</t>
+          <t>description 文本长度，缺失按 0 计算</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>520</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>host_about_length</t>
+          <t>neighborhood_desc_length</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>房东自我介绍字数</t>
+          <t>社区介绍字数</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2051,29 +2051,29 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>host_about 文本长度</t>
+          <t>neighborhood_overview 文本长度</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>180</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>listing_age_days</t>
+          <t>host_about_length</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>房源上线天数</t>
+          <t>房东自我介绍字数</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2083,29 +2083,29 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2021-09-07 与 first_review 之间的天数</t>
+          <t>host_about 文本长度</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1800</t>
+          <t>75</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>days_since_last_review</t>
+          <t>listing_age_days</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>距离上一条评论的天数</t>
+          <t>房源上线天数</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2115,29 +2115,29 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2021-09-07 与 last_review 的天数（无评论记 9999）</t>
+          <t>2021-09-07 与 first_review 之间的天数</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>1800</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>recent_review_flag</t>
+          <t>days_since_last_review</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>30 天内有新评论标记</t>
+          <t>距离上一条评论的天数</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2147,29 +2147,29 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>days_since_last_review ≤ 30 → 1，否则 0</t>
+          <t>2021-09-07 与 last_review 的天数（无评论记 9999）</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>派生自 last_review</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>recent_review_score</t>
+          <t>recent_review_flag</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>近期评论活跃度得分</t>
+          <t>30 天内有新评论标记</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2179,29 +2179,29 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>(30 - clamp(days_since_last_review,0,30))/30 + 0.5*reviews_growth_ratio</t>
+          <t>days_since_last_review ≤ 30 → 1，否则 0</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>派生自评论字段</t>
+          <t>派生自 last_review</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>distance_to_center_km</t>
+          <t>recent_review_score</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>距离市中心的直线距离（公里）</t>
+          <t>近期评论活跃度得分</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2211,29 +2211,29 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>根据 latitude/longitude 与市中心 (52.3676, 4.9041) 计算 haversine 距离</t>
+          <t>exp(-days_since_last_review / 365)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>listings_detailed.xlsx</t>
+          <t>派生自评论字段</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>is_central</t>
+          <t>distance_to_center_km</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>是否位于中心 4KM 内</t>
+          <t>距离市中心的直线距离（公里）</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2243,29 +2243,29 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>distance_to_center_km ≤ 4 → 1，否则 0</t>
+          <t>根据 latitude/longitude 与市中心 (52.3676, 4.9041) 计算 haversine 距离</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>派生自 distance_to_center_km</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>is_high_rating</t>
+          <t>is_central</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>高评分二分类标签（1=评分&gt;=4.9，0=其他）</t>
+          <t>是否位于中心 5KM 内</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>review_scores_rating &gt;= 4.9 → 1，否则 → 0</t>
+          <t>distance_to_center_km ≤ 5 → 1，否则 0</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2285,1415 +2285,1831 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>派生自 review_scores_rating</t>
+          <t>派生自 distance_to_center_km</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>description_st_embed_1</t>
+          <t>availability_eoy_is_missing</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>房源描述文本嵌入特征（第1维）</t>
+          <t>availability_eoy 字段是否缺失</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>缺失指示变量</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第1维</t>
+          <t>原始数据中 availability_eoy 缺失 → 1，否则 0</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>description_st_embed_2</t>
+          <t>estimated_occupancy_l365d_is_missing</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>房源描述文本嵌入特征（第2维）</t>
+          <t>estimated_occupancy_l365d 字段是否缺失</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>缺失指示变量</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第2维</t>
+          <t>原始数据中 estimated_occupancy_l365d 缺失 → 1，否则 0</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>description_st_embed_3</t>
+          <t>host_about_is_missing</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>房源描述文本嵌入特征（第3维）</t>
+          <t>host_about 字段是否缺失</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>缺失指示变量</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第3维</t>
+          <t>原始数据中 host_about 缺失 → 1，否则 0</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>description_st_embed_4</t>
+          <t>host_acceptance_rate_is_missing</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>房源描述文本嵌入特征（第4维）</t>
+          <t>host_acceptance_rate 字段是否缺失</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>缺失指示变量</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第4维</t>
+          <t>原始数据中 host_acceptance_rate 缺失 → 1，否则 0</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>description_st_embed_5</t>
+          <t>host_neighbourhood_is_missing</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>房源描述文本嵌入特征（第5维）</t>
+          <t>host_neighbourhood 字段是否缺失</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>缺失指示变量</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第5维</t>
+          <t>原始数据中 host_neighbourhood 缺失 → 1，否则 0</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>description_st_embed_6</t>
+          <t>host_response_rate_is_missing</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>房源描述文本嵌入特征（第6维）</t>
+          <t>host_response_rate 字段是否缺失</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>缺失指示变量</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第6维</t>
+          <t>原始数据中 host_response_rate 缺失 → 1，否则 0</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>description_st_embed_8</t>
+          <t>host_response_time_is_missing</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>房源描述文本嵌入特征（第8维）</t>
+          <t>host_response_time 字段是否缺失</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>缺失指示变量</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第8维</t>
+          <t>原始数据中 host_response_time 缺失 → 1，否则 0</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>description_st_embed_9</t>
+          <t>neighborhood_overview_is_missing</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>房源描述文本嵌入特征（第9维）</t>
+          <t>neighborhood_overview 字段是否缺失</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>缺失指示变量</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第9维</t>
+          <t>原始数据中 neighborhood_overview 缺失 → 1，否则 0</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>description_st_embed_10</t>
+          <t>neighbourhood_is_missing</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>房源描述文本嵌入特征（第10维）</t>
+          <t>neighbourhood 字段是否缺失</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>缺失指示变量</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第10维</t>
+          <t>原始数据中 neighbourhood 缺失 → 1，否则 0</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>description_st_embed_11</t>
+          <t>number_of_reviews_ly_is_missing</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>房源描述文本嵌入特征（第11维）</t>
+          <t>number_of_reviews_ly 字段是否缺失</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>缺失指示变量</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第11维</t>
+          <t>原始数据中 number_of_reviews_ly 缺失 → 1，否则 0</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>description_st_embed_12</t>
+          <t>source_is_missing</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>房源描述文本嵌入特征（第12维）</t>
+          <t>source 字段是否缺失</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>缺失指示变量</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第12维</t>
+          <t>原始数据中 source 缺失 → 1，否则 0</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>description_st_embed_13</t>
+          <t>desc_embed_0</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>房源描述文本嵌入特征（第13维）</t>
+          <t>房源描述文本嵌入第0维</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第13维</t>
+          <t>使用 TF-IDF + SVD 对 description 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>description_st_embed_14</t>
+          <t>desc_embed_1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>房源描述文本嵌入特征（第14维）</t>
+          <t>房源描述文本嵌入第1维</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第14维</t>
+          <t>使用 TF-IDF + SVD 对 description 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>description_st_embed_15</t>
+          <t>desc_embed_2</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>房源描述文本嵌入特征（第15维）</t>
+          <t>房源描述文本嵌入第2维</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第15维</t>
+          <t>使用 TF-IDF + SVD 对 description 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>description_st_embed_16</t>
+          <t>desc_embed_3</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>房源描述文本嵌入特征（第16维）</t>
+          <t>房源描述文本嵌入第3维</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第16维</t>
+          <t>使用 TF-IDF + SVD 对 description 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>description_st_embed_17</t>
+          <t>desc_embed_4</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>房源描述文本嵌入特征（第17维）</t>
+          <t>房源描述文本嵌入第4维</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第17维</t>
+          <t>使用 TF-IDF + SVD 对 description 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>description_st_embed_18</t>
+          <t>desc_embed_5</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>房源描述文本嵌入特征（第18维）</t>
+          <t>房源描述文本嵌入第5维</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第18维</t>
+          <t>使用 TF-IDF + SVD 对 description 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>description_st_embed_19</t>
+          <t>desc_embed_6</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>房源描述文本嵌入特征（第19维）</t>
+          <t>房源描述文本嵌入第6维</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第19维</t>
+          <t>使用 TF-IDF + SVD 对 description 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>description_st_embed_20</t>
+          <t>desc_embed_7</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>房源描述文本嵌入特征（第20维）</t>
+          <t>房源描述文本嵌入第7维</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第20维</t>
+          <t>使用 TF-IDF + SVD 对 description 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>neighborhood_st_embed_1</t>
+          <t>desc_embed_8</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>社区概述文本嵌入特征（第1维）</t>
+          <t>房源描述文本嵌入第8维</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第1维</t>
+          <t>使用 TF-IDF + SVD 对 description 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>neighborhood_st_embed_2</t>
+          <t>desc_embed_9</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>社区概述文本嵌入特征（第2维）</t>
+          <t>房源描述文本嵌入第9维</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第2维</t>
+          <t>使用 TF-IDF + SVD 对 description 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>neighborhood_st_embed_3</t>
+          <t>desc_embed_10</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>社区概述文本嵌入特征（第3维）</t>
+          <t>房源描述文本嵌入第10维</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第3维</t>
+          <t>使用 TF-IDF + SVD 对 description 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>neighborhood_st_embed_4</t>
+          <t>desc_embed_11</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>社区概述文本嵌入特征（第4维）</t>
+          <t>房源描述文本嵌入第11维</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第4维</t>
+          <t>使用 TF-IDF + SVD 对 description 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>neighborhood_st_embed_5</t>
+          <t>desc_embed_12</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>社区概述文本嵌入特征（第5维）</t>
+          <t>房源描述文本嵌入第12维</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第5维</t>
+          <t>使用 TF-IDF + SVD 对 description 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>neighborhood_st_embed_6</t>
+          <t>desc_embed_13</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>社区概述文本嵌入特征（第6维）</t>
+          <t>房源描述文本嵌入第13维</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第6维</t>
+          <t>使用 TF-IDF + SVD 对 description 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>neighborhood_st_embed_7</t>
+          <t>desc_embed_14</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>社区概述文本嵌入特征（第7维）</t>
+          <t>房源描述文本嵌入第14维</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第7维</t>
+          <t>使用 TF-IDF + SVD 对 description 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>neighborhood_st_embed_8</t>
+          <t>desc_embed_15</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>社区概述文本嵌入特征（第8维）</t>
+          <t>房源描述文本嵌入第15维</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第8维</t>
+          <t>使用 TF-IDF + SVD 对 description 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>neighborhood_st_embed_9</t>
+          <t>desc_embed_16</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>社区概述文本嵌入特征（第9维）</t>
+          <t>房源描述文本嵌入第16维</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第9维</t>
+          <t>使用 TF-IDF + SVD 对 description 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>neighborhood_st_embed_10</t>
+          <t>desc_embed_17</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>社区概述文本嵌入特征（第10维）</t>
+          <t>房源描述文本嵌入第17维</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第10维</t>
+          <t>使用 TF-IDF + SVD 对 description 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>neighborhood_st_embed_11</t>
+          <t>desc_embed_18</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>社区概述文本嵌入特征（第11维）</t>
+          <t>房源描述文本嵌入第18维</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第11维</t>
+          <t>使用 TF-IDF + SVD 对 description 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>neighborhood_st_embed_12</t>
+          <t>desc_embed_19</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>社区概述文本嵌入特征（第12维）</t>
+          <t>房源描述文本嵌入第19维</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第12维</t>
+          <t>使用 TF-IDF + SVD 对 description 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>neighborhood_st_embed_13</t>
+          <t>neighborhood_embed_0</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>社区概述文本嵌入特征（第13维）</t>
+          <t>社区介绍文本嵌入第0维</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第13维</t>
+          <t>使用 TF-IDF + SVD 对 neighborhood_overview 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>neighborhood_st_embed_14</t>
+          <t>neighborhood_embed_1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>社区概述文本嵌入特征（第14维）</t>
+          <t>社区介绍文本嵌入第1维</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第14维</t>
+          <t>使用 TF-IDF + SVD 对 neighborhood_overview 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>neighborhood_st_embed_15</t>
+          <t>neighborhood_embed_2</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>社区概述文本嵌入特征（第15维）</t>
+          <t>社区介绍文本嵌入第2维</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第15维</t>
+          <t>使用 TF-IDF + SVD 对 neighborhood_overview 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>host_about_st_embed_1</t>
+          <t>neighborhood_embed_3</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>房东介绍文本嵌入特征（第1维）</t>
+          <t>社区介绍文本嵌入第3维</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第1维</t>
+          <t>使用 TF-IDF + SVD 对 neighborhood_overview 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>host_about_st_embed_2</t>
+          <t>neighborhood_embed_4</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>房东介绍文本嵌入特征（第2维）</t>
+          <t>社区介绍文本嵌入第4维</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第2维</t>
+          <t>使用 TF-IDF + SVD 对 neighborhood_overview 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>host_about_st_embed_3</t>
+          <t>neighborhood_embed_5</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>房东介绍文本嵌入特征（第3维）</t>
+          <t>社区介绍文本嵌入第5维</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第3维</t>
+          <t>使用 TF-IDF + SVD 对 neighborhood_overview 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>host_about_st_embed_4</t>
+          <t>neighborhood_embed_6</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>房东介绍文本嵌入特征（第4维）</t>
+          <t>社区介绍文本嵌入第6维</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第4维</t>
+          <t>使用 TF-IDF + SVD 对 neighborhood_overview 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>host_about_st_embed_5</t>
+          <t>neighborhood_embed_7</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>房东介绍文本嵌入特征（第5维）</t>
+          <t>社区介绍文本嵌入第7维</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第5维</t>
+          <t>使用 TF-IDF + SVD 对 neighborhood_overview 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>host_about_st_embed_6</t>
+          <t>neighborhood_embed_8</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>房东介绍文本嵌入特征（第6维）</t>
+          <t>社区介绍文本嵌入第8维</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第6维</t>
+          <t>使用 TF-IDF + SVD 对 neighborhood_overview 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>host_about_st_embed_7</t>
+          <t>neighborhood_embed_9</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>房东介绍文本嵌入特征（第7维）</t>
+          <t>社区介绍文本嵌入第9维</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第7维</t>
+          <t>使用 TF-IDF + SVD 对 neighborhood_overview 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>host_about_st_embed_8</t>
+          <t>neighborhood_embed_10</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>房东介绍文本嵌入特征（第8维）</t>
+          <t>社区介绍文本嵌入第10维</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第8维</t>
+          <t>使用 TF-IDF + SVD 对 neighborhood_overview 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>host_about_st_embed_9</t>
+          <t>neighborhood_embed_11</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>房东介绍文本嵌入特征（第9维）</t>
+          <t>社区介绍文本嵌入第11维</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第9维</t>
+          <t>使用 TF-IDF + SVD 对 neighborhood_overview 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>host_about_st_embed_10</t>
+          <t>neighborhood_embed_12</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>房东介绍文本嵌入特征（第10维）</t>
+          <t>社区介绍文本嵌入第12维</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>衍生字段</t>
+          <t>文本嵌入</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>使用 sentence-transformers (all-MiniLM-L6-v2) 生成文本嵌入，PCA降维后第10维</t>
+          <t>使用 TF-IDF + SVD 对 neighborhood_overview 字段进行降维，共20维</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>sentence-transformers + PCA</t>
+          <t>listings_cleaned.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>neighborhood_embed_13</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>社区介绍文本嵌入第13维</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>文本嵌入</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>使用 TF-IDF + SVD 对 neighborhood_overview 字段进行降维，共20维</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0.015</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>listings_cleaned.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>neighborhood_embed_14</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>社区介绍文本嵌入第14维</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>文本嵌入</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>使用 TF-IDF + SVD 对 neighborhood_overview 字段进行降维，共20维</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0.015</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>listings_cleaned.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>neighborhood_embed_15</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>社区介绍文本嵌入第15维</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>文本嵌入</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>使用 TF-IDF + SVD 对 neighborhood_overview 字段进行降维，共20维</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0.015</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>listings_cleaned.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>neighborhood_embed_16</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>社区介绍文本嵌入第16维</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>文本嵌入</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>使用 TF-IDF + SVD 对 neighborhood_overview 字段进行降维，共20维</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0.015</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>listings_cleaned.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>neighborhood_embed_17</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>社区介绍文本嵌入第17维</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>文本嵌入</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>使用 TF-IDF + SVD 对 neighborhood_overview 字段进行降维，共20维</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0.015</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>listings_cleaned.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>neighborhood_embed_18</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>社区介绍文本嵌入第18维</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>文本嵌入</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>使用 TF-IDF + SVD 对 neighborhood_overview 字段进行降维，共20维</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0.015</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>listings_cleaned.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>neighborhood_embed_19</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>社区介绍文本嵌入第19维</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>文本嵌入</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>使用 TF-IDF + SVD 对 neighborhood_overview 字段进行降维，共20维</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0.015</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>listings_cleaned.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>desc_sentiment_compound</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>房源描述情感得分</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>情感分析</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>使用 VADER 情感分析器分析 description 文本的复合情感得分（-1到1）</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>listings_cleaned.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>neighborhood_sentiment_compound</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>社区介绍情感得分</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>情感分析</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>使用 VADER 情感分析器分析 neighborhood_overview 文本的复合情感得分</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>listings_cleaned.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>host_about_sentiment_compound</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>房东介绍情感得分</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>情感分析</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>使用 VADER 情感分析器分析 host_about 文本的复合情感得分</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>listings_cleaned.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>text_sentiment_score</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>综合文本情感得分</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>情感分析</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.5*desc_sentiment + 0.3*neighborhood_sentiment + 0.2*host_about_sentiment</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>派生自文本情感分析</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>amenity_has_long_term_stays_allowed</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>是否允许长期住宿</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>衍生字段</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>amenities 中出现 'long term stays allowed' → 1，否则 0</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>listings_cleaned.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>amenity_has_pets_allowed</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>是否允许宠物</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>衍生字段</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>amenities 中出现 'pets allowed' → 1，否则 0</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>listings_cleaned.csv</t>
         </is>
       </c>
     </row>
